--- a/Experiments/221018/output.xlsx
+++ b/Experiments/221018/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2DD8E7-CC7E-DE40-892D-D758C78830A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443C833-5B24-6B42-83E2-6688AD988A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16200" xr2:uid="{D768563B-A4F9-AB4E-B657-88AFD454BEC3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>20x-N--</t>
   </si>
@@ -61,15 +61,6 @@
     <t>20x-P++</t>
   </si>
   <si>
-    <t>Rep1</t>
-  </si>
-  <si>
-    <t>Rep2</t>
-  </si>
-  <si>
-    <t>Rep3</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -77,6 +68,33 @@
   </si>
   <si>
     <t>Temp2</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
+  </si>
+  <si>
+    <t>51103.34*</t>
+  </si>
+  <si>
+    <t>72321.7*</t>
+  </si>
+  <si>
+    <t>71083.72*</t>
   </si>
 </sst>
 </file>
@@ -428,35 +446,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502FD81-842F-E549-9B57-CA71C098282A}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+      <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,8 +505,17 @@
       <c r="G2">
         <v>96041.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>131721</v>
+      </c>
+      <c r="I2">
+        <v>198453.6</v>
+      </c>
+      <c r="J2">
+        <v>185015.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,8 +537,17 @@
       <c r="G3">
         <v>523372.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>48994.31</v>
+      </c>
+      <c r="I3">
+        <v>56791.25</v>
+      </c>
+      <c r="J3">
+        <v>336700.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -524,8 +569,17 @@
       <c r="G4">
         <v>548837.19999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>370195.6</v>
+      </c>
+      <c r="I4">
+        <v>364550</v>
+      </c>
+      <c r="J4">
+        <v>370445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -547,8 +601,17 @@
       <c r="G5">
         <v>2421364</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>239905.5</v>
+      </c>
+      <c r="I5">
+        <v>233531</v>
+      </c>
+      <c r="J5">
+        <v>228437.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -570,8 +633,17 @@
       <c r="G6">
         <v>477789.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>389711.7</v>
+      </c>
+      <c r="J6">
+        <v>450016.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -593,8 +665,17 @@
       <c r="G7">
         <v>591492</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>327750.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -616,8 +697,17 @@
       <c r="G8">
         <v>665230</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>334873.7</v>
+      </c>
+      <c r="I8">
+        <v>340939.6</v>
+      </c>
+      <c r="J8">
+        <v>390645.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -638,6 +728,15 @@
       </c>
       <c r="G9">
         <v>2469444</v>
+      </c>
+      <c r="H9">
+        <v>136167.20000000001</v>
+      </c>
+      <c r="I9">
+        <v>154122.6</v>
+      </c>
+      <c r="J9">
+        <v>191543.8</v>
       </c>
     </row>
   </sheetData>
